--- a/app/config/tables/testRun/forms/testRun/testRun.xlsx
+++ b/app/config/tables/testRun/forms/testRun/testRun.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="6140" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="25280" yWindow="5960" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>type</t>
   </si>
@@ -132,6 +132,24 @@
   </si>
   <si>
     <t>testId</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>Database Used</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>Services Used</t>
+  </si>
+  <si>
+    <t>all_in_one</t>
+  </si>
+  <si>
+    <t>All In One APK Used</t>
   </si>
 </sst>
 </file>
@@ -522,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -658,45 +676,84 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/config/tables/testRun/forms/testRun/testRun.xlsx
+++ b/app/config/tables/testRun/forms/testRun/testRun.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\testRun\forms\testRun\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25280" yWindow="5960" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="25279" yWindow="5956" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>type</t>
   </si>
@@ -35,9 +40,6 @@
     <t>display.text</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -59,9 +61,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -150,12 +149,21 @@
   </si>
   <si>
     <t>All In One APK Used</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -215,6 +223,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -542,19 +558,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,190 +582,190 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -773,19 +790,19 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
@@ -805,66 +822,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="B3">
         <v>20161123</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="B6" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/testRun/forms/testRun/testRun.xlsx
+++ b/app/config/tables/testRun/forms/testRun/testRun.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25279" yWindow="5956" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="25279" yWindow="5956" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>type</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>text</t>
@@ -582,165 +579,165 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="E13" s="4"/>
     </row>
@@ -786,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -799,13 +796,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -822,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -835,26 +832,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>20161123</v>
@@ -862,26 +859,26 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
